--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value12.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value12.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.502097290087386</v>
+        <v>4.767124176025391</v>
       </c>
       <c r="B1">
-        <v>2.043424117894439</v>
+        <v>6.563809871673584</v>
       </c>
       <c r="C1">
-        <v>2.101415127408717</v>
+        <v>5.56760835647583</v>
       </c>
       <c r="D1">
-        <v>2.284540240017777</v>
+        <v>6.659129619598389</v>
       </c>
       <c r="E1">
-        <v>0.5662634771596939</v>
+        <v>3.788486242294312</v>
       </c>
     </row>
   </sheetData>
